--- a/materials/reading-ranger/stimuli/passage-error-excels/set-11a/roses_11g.xlsx
+++ b/materials/reading-ranger/stimuli/passage-error-excels/set-11a/roses_11g.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="279">
   <si>
     <t xml:space="preserve">Roses,</t>
   </si>
@@ -763,10 +763,7 @@
     <t xml:space="preserve">ppeal.</t>
   </si>
   <si>
-    <t xml:space="preserve">el</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o</t>
+    <t xml:space="preserve">lo</t>
   </si>
   <si>
     <t xml:space="preserve">quent</t>
@@ -3298,22 +3295,22 @@
         <v>9</v>
       </c>
       <c r="JC2" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="JD2" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="JD2" s="8" t="s">
+      <c r="JE2" s="9" t="s">
         <v>248</v>
-      </c>
-      <c r="JE2" s="9" t="s">
-        <v>249</v>
       </c>
       <c r="JF2" s="8" t="s">
         <v>176</v>
       </c>
       <c r="JG2" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="JH2" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="JH2" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="JI2" s="8" t="s">
         <v>11</v>
@@ -3322,7 +3319,7 @@
         <v>19</v>
       </c>
       <c r="JK2" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="JL2" s="8" t="s">
         <v>9</v>
@@ -3343,7 +3340,7 @@
         <v>239</v>
       </c>
       <c r="JR2" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="JS2" s="8" t="s">
         <v>168</v>
@@ -3358,25 +3355,25 @@
         <v>134</v>
       </c>
       <c r="JW2" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="JX2" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="JX2" s="8" t="s">
+      <c r="JY2" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="JY2" s="8" t="s">
+      <c r="JZ2" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="JZ2" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="KA2" s="8" t="s">
         <v>162</v>
       </c>
       <c r="KB2" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="KC2" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="KC2" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="KD2" s="9" t="s">
         <v>11</v>
@@ -3397,7 +3394,7 @@
         <v>134</v>
       </c>
       <c r="KJ2" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="KK2" s="8" t="s">
         <v>97</v>
@@ -3409,22 +3406,22 @@
         <v>122</v>
       </c>
       <c r="KN2" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="KO2" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="KO2" s="8" t="s">
+      <c r="KP2" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="KP2" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="KQ2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="KR2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="KS2" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="KS2" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="KT2" s="8"/>
       <c r="KU2" s="8"/>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="11" t="n">
         <v>0</v>
@@ -4478,7 +4475,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="11" t="n">
         <v>0</v>
@@ -5461,7 +5458,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="11" t="n">
         <v>0</v>
@@ -6444,7 +6441,7 @@
     </row>
     <row r="6" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="16" t="n">
         <v>0</v>
@@ -7427,7 +7424,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="11" t="n">
         <v>0</v>
@@ -8410,7 +8407,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="11" t="n">
         <v>0</v>
@@ -9393,7 +9390,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="11" t="n">
         <v>0</v>
@@ -10376,7 +10373,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="11" t="n">
         <v>0</v>
@@ -11359,7 +11356,7 @@
     </row>
     <row r="11" s="24" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="21" t="n">
         <v>0</v>
@@ -12342,7 +12339,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="11" t="n">
         <v>0</v>
@@ -13325,7 +13322,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="11" t="n">
         <v>0</v>
@@ -14308,7 +14305,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B14" s="11" t="n">
         <v>0</v>
@@ -15291,7 +15288,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -15666,7 +15663,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
